--- a/LINQ_TO_SQL/DynamicsOfTheAverageScore.xlsx
+++ b/LINQ_TO_SQL/DynamicsOfTheAverageScore.xlsx
@@ -29,16 +29,16 @@
     <t>Art</t>
   </si>
   <si>
-    <t>YAPVU</t>
+    <t>Winter/2020</t>
   </si>
   <si>
     <t>Math</t>
   </si>
   <si>
-    <t>Winter/2020</t>
+    <t>Programming</t>
   </si>
   <si>
-    <t>Programming</t>
+    <t>YAPVU</t>
   </si>
 </sst>
 </file>
@@ -84,7 +84,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -114,13 +114,13 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -128,7 +128,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
@@ -136,12 +136,23 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0">
-        <v>2</v>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>3</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="B6" s="0">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>8</v>
       </c>
     </row>

--- a/LINQ_TO_SQL/DynamicsOfTheAverageScore.xlsx
+++ b/LINQ_TO_SQL/DynamicsOfTheAverageScore.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Year</t>
   </si>
@@ -26,19 +26,16 @@
     <t>Winter/2019</t>
   </si>
   <si>
-    <t>Art</t>
+    <t>Assembler</t>
   </si>
   <si>
     <t>Winter/2020</t>
   </si>
   <si>
-    <t>Math</t>
-  </si>
-  <si>
     <t>Programming</t>
   </si>
   <si>
-    <t>YAPVU</t>
+    <t>WinApi</t>
   </si>
 </sst>
 </file>
@@ -84,7 +81,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -106,7 +103,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>4</v>
@@ -120,7 +117,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -131,29 +128,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="0">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
